--- a/trunk/PT.Documents/CreateSavingStore.xlsx
+++ b/trunk/PT.Documents/CreateSavingStore.xlsx
@@ -43,7 +43,9 @@
             <charset val="163"/>
           </rPr>
           <t xml:space="preserve">
-Paste vao o nay
+DataBase \
+Chon Cript Table chon Create Table
+Copy Colum Paste vao o nay
 </t>
         </r>
       </text>
@@ -576,7 +578,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/PT.Documents/CreateSavingStore.xlsx
+++ b/trunk/PT.Documents/CreateSavingStore.xlsx
@@ -50,22 +50,45 @@
         </r>
       </text>
     </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t xml:space="preserve">
+DataBase \
+Chon Cript Table chon Create Table
+Copy Colum Paste vao o nay
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>[BranchID] [varchar](10) NOT NULL,</t>
   </si>
   <si>
-    <t>[BatNbr] [varchar](10) NOT NULL,</t>
-  </si>
-  <si>
-    <t>[Acct] [varchar](10) NOT NULL,</t>
-  </si>
-  <si>
     <t>[SubAcct] [varchar](24) NOT NULL,</t>
   </si>
   <si>
@@ -87,96 +110,6 @@
     <t>UPDATE</t>
   </si>
   <si>
-    <t>[RefNbr] [varchar](10) NOT NULL,</t>
-  </si>
-  <si>
-    <t>[LineRef] [varchar](5) NOT NULL,</t>
-  </si>
-  <si>
-    <t>[Addr] [nvarchar](200) NOT NULL,</t>
-  </si>
-  <si>
-    <t>[AlternateID] [varchar](30) NOT NULL,</t>
-  </si>
-  <si>
-    <t>[CuryPOExtPrice] [float] NOT NULL,</t>
-  </si>
-  <si>
-    <t>[CuryPOFee] [float] NOT NULL,</t>
-  </si>
-  <si>
-    <t>[CuryPOUnitPrice] [float] NOT NULL,</t>
-  </si>
-  <si>
-    <t>[CuryPPV] [float] NOT NULL,</t>
-  </si>
-  <si>
-    <t>[CuryTaxAmt00] [float] NOT NULL,</t>
-  </si>
-  <si>
-    <t>[CuryTaxAmt01] [float] NOT NULL,</t>
-  </si>
-  <si>
-    <t>[CuryTaxAmt02] [float] NOT NULL,</t>
-  </si>
-  <si>
-    <t>[CuryTaxAmt03] [float] NOT NULL,</t>
-  </si>
-  <si>
-    <t>[CuryTranAmt] [float] NOT NULL,</t>
-  </si>
-  <si>
-    <t>[CuryTxblAmt00] [float] NOT NULL,</t>
-  </si>
-  <si>
-    <t>[CuryTxblAmt01] [float] NOT NULL,</t>
-  </si>
-  <si>
-    <t>[CuryTxblAmt02] [float] NOT NULL,</t>
-  </si>
-  <si>
-    <t>[CuryTxblAmt03] [float] NOT NULL,</t>
-  </si>
-  <si>
-    <t>[CuryUnitPrice] [float] NOT NULL,</t>
-  </si>
-  <si>
-    <t>[DrCr] [varchar](1) NOT NULL,</t>
-  </si>
-  <si>
-    <t>[InvcNbr] [varchar](10) NOT NULL,</t>
-  </si>
-  <si>
-    <t>[InvcNote] [varchar](10) NOT NULL,</t>
-  </si>
-  <si>
-    <t>[InvtID] [varchar](30) NOT NULL,</t>
-  </si>
-  <si>
-    <t>[InvcDate] [datetime] NOT NULL,</t>
-  </si>
-  <si>
-    <t>[JrnlType] [varchar](3) NOT NULL,</t>
-  </si>
-  <si>
-    <t>[LineType] [varchar](1) NOT NULL,</t>
-  </si>
-  <si>
-    <t>[POExtPrice] [float] NOT NULL,</t>
-  </si>
-  <si>
-    <t>[POFee] [float] NOT NULL,</t>
-  </si>
-  <si>
-    <t>[POLineRef] [varchar](5) NOT NULL,</t>
-  </si>
-  <si>
-    <t>[PONbr] [varchar](10) NOT NULL,</t>
-  </si>
-  <si>
-    <t>[POQty] [float] NOT NULL,</t>
-  </si>
-  <si>
     <t>[POUnitPrice] [float] NOT NULL,</t>
   </si>
   <si>
@@ -205,6 +138,99 @@
   </si>
   <si>
     <t>[TaxAmt01] [float] NOT NULL,</t>
+  </si>
+  <si>
+    <t>[DocNbr] [varchar](10) NOT NULL,</t>
+  </si>
+  <si>
+    <t>[Module] [varchar](2) NOT NULL,</t>
+  </si>
+  <si>
+    <t>[TranType] [varchar](5) NOT NULL,</t>
+  </si>
+  <si>
+    <t>[ToWhID] [varchar](10) NULL,</t>
+  </si>
+  <si>
+    <t>[Rlsed] [smallint] NOT NULL,</t>
+  </si>
+  <si>
+    <t>[Crtd_DateTime] [datetime] NOT NULL,</t>
+  </si>
+  <si>
+    <t>[Crtd_Prog] [varchar](8) NOT NULL,</t>
+  </si>
+  <si>
+    <t>[Crtd_User] [varchar](10) NOT NULL,</t>
+  </si>
+  <si>
+    <t>[LUpd_DateTime] [datetime] NOT NULL,</t>
+  </si>
+  <si>
+    <t>[LUpd_Prog] [varchar](8) NOT NULL,</t>
+  </si>
+  <si>
+    <t>[LUpd_User] [varchar](10) NOT NULL,</t>
+  </si>
+  <si>
+    <t>[LineRef] [varchar](3) NOT NULL,</t>
+  </si>
+  <si>
+    <t>[TranDate] [smalldatetime] NOT NULL,</t>
+  </si>
+  <si>
+    <t>[WhID] [varchar](10) NOT NULL,</t>
+  </si>
+  <si>
+    <t>[FreeItem] [bit] NOT NULL,</t>
+  </si>
+  <si>
+    <t>[ProductID] [varchar](30) NOT NULL,</t>
+  </si>
+  <si>
+    <t>[TranDesc] [nvarchar](100) NOT NULL,</t>
+  </si>
+  <si>
+    <t>[LotID] [varchar](20) NULL,</t>
+  </si>
+  <si>
+    <t>[INUnit] [nvarchar](15) NOT NULL,</t>
+  </si>
+  <si>
+    <t>[LineQty] [float] NOT NULL,</t>
+  </si>
+  <si>
+    <t>[UnitCost] [float] NOT NULL,</t>
+  </si>
+  <si>
+    <t>[TotalCost] [float] NOT NULL,</t>
+  </si>
+  <si>
+    <t>[InvtMult] [smallint] NOT NULL,</t>
+  </si>
+  <si>
+    <t>[ObjID] [varchar](30) NULL,</t>
+  </si>
+  <si>
+    <t>[ShipperID] [varchar](15) NULL,</t>
+  </si>
+  <si>
+    <t>[RsID] [varchar](6) NOT NULL,</t>
+  </si>
+  <si>
+    <t>[SONbr] [varchar](15) NULL,</t>
+  </si>
+  <si>
+    <t>[PONbr] [varchar](15) NULL,</t>
+  </si>
+  <si>
+    <t>[Cnvfact] [float] NOT NULL,</t>
+  </si>
+  <si>
+    <t>[UnitRate] [float] NOT NULL,</t>
+  </si>
+  <si>
+    <t>[DetailQty] [float] NOT NULL,</t>
   </si>
 </sst>
 </file>
@@ -577,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,31 +621,33 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H1" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="str">
@@ -657,101 +685,101 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ref="C4:C46" si="1">SUBSTITUTE(B4,"[","")</f>
-        <v>BatNbr] varchar](10) NOT NULL,</v>
+        <v>DocNbr] varchar](10) NOT NULL,</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4:D46" si="2">SUBSTITUTE(C4,"]","")</f>
-        <v>BatNbr varchar(10) NOT NULL,</v>
+        <v>DocNbr varchar(10) NOT NULL,</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" ref="E4:E46" si="3">SUBSTITUTE(D4,"NOT","")</f>
-        <v>BatNbr varchar(10)  NULL,</v>
+        <v>DocNbr varchar(10)  NULL,</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F46" si="4">SUBSTITUTE(E4,"NULL","")</f>
-        <v>BatNbr varchar(10)  ,</v>
+        <v>DocNbr varchar(10)  ,</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>@BatNbr varchar(10) ,</v>
+        <v>@DocNbr varchar(10) ,</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ref="H4:H46" si="5">LEFT(F4,FIND(" ",F4))&amp;","</f>
-        <v>BatNbr ,</v>
+        <v>DocNbr ,</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" ref="I4:I46" si="6">"@"&amp;H4</f>
-        <v>@BatNbr ,</v>
+        <v>@DocNbr ,</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" ref="J4:J46" si="7">LEFT(F4,FIND(" ",F4))&amp;"="&amp;I4</f>
-        <v>BatNbr =@BatNbr ,</v>
+        <v>DocNbr =@DocNbr ,</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
-        <v>RefNbr] varchar](10) NOT NULL,</v>
+        <v>Module] varchar](2) NOT NULL,</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="2"/>
-        <v>RefNbr varchar(10) NOT NULL,</v>
+        <v>Module varchar(2) NOT NULL,</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="3"/>
-        <v>RefNbr varchar(10)  NULL,</v>
+        <v>Module varchar(2)  NULL,</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="4"/>
-        <v>RefNbr varchar(10)  ,</v>
+        <v>Module varchar(2)  ,</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>@RefNbr varchar(10) ,</v>
+        <v>@Module varchar(2) ,</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="5"/>
-        <v>RefNbr ,</v>
+        <v>Module ,</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="6"/>
-        <v>@RefNbr ,</v>
+        <v>@Module ,</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="7"/>
-        <v>RefNbr =@RefNbr ,</v>
+        <v>Module =@Module ,</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
-        <v>LineRef] varchar](5) NOT NULL,</v>
+        <v>LineRef] varchar](3) NOT NULL,</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="2"/>
-        <v>LineRef varchar(5) NOT NULL,</v>
+        <v>LineRef varchar(3) NOT NULL,</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="3"/>
-        <v>LineRef varchar(5)  NULL,</v>
+        <v>LineRef varchar(3)  NULL,</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="4"/>
-        <v>LineRef varchar(5)  ,</v>
+        <v>LineRef varchar(3)  ,</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>@LineRef varchar(5) ,</v>
+        <v>@LineRef varchar(3) ,</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="5"/>
@@ -768,1080 +796,1077 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
-        <v>Acct] varchar](10) NOT NULL,</v>
+        <v>TranType] varchar](5) NOT NULL,</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="2"/>
-        <v>Acct varchar(10) NOT NULL,</v>
+        <v>TranType varchar(5) NOT NULL,</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="3"/>
-        <v>Acct varchar(10)  NULL,</v>
+        <v>TranType varchar(5)  NULL,</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="4"/>
-        <v>Acct varchar(10)  ,</v>
+        <v>TranType varchar(5)  ,</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>@Acct varchar(10) ,</v>
+        <v>@TranType varchar(5) ,</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="5"/>
-        <v>Acct ,</v>
+        <v>TranType ,</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="6"/>
-        <v>@Acct ,</v>
+        <v>@TranType ,</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="7"/>
-        <v>Acct =@Acct ,</v>
+        <v>TranType =@TranType ,</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
-        <v>Addr] nvarchar](200) NOT NULL,</v>
+        <v>TranDate] smalldatetime] NOT NULL,</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="2"/>
-        <v>Addr nvarchar(200) NOT NULL,</v>
+        <v>TranDate smalldatetime NOT NULL,</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="3"/>
-        <v>Addr nvarchar(200)  NULL,</v>
+        <v>TranDate smalldatetime  NULL,</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="4"/>
-        <v>Addr nvarchar(200)  ,</v>
+        <v>TranDate smalldatetime  ,</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>@Addr nvarchar(200) ,</v>
+        <v>@TranDate smalldatetime ,</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="5"/>
-        <v>Addr ,</v>
+        <v>TranDate ,</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="6"/>
-        <v>@Addr ,</v>
+        <v>@TranDate ,</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="7"/>
-        <v>Addr =@Addr ,</v>
+        <v>TranDate =@TranDate ,</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
-        <v>AlternateID] varchar](30) NOT NULL,</v>
+        <v>WhID] varchar](10) NOT NULL,</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="2"/>
-        <v>AlternateID varchar(30) NOT NULL,</v>
+        <v>WhID varchar(10) NOT NULL,</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="3"/>
-        <v>AlternateID varchar(30)  NULL,</v>
+        <v>WhID varchar(10)  NULL,</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="4"/>
-        <v>AlternateID varchar(30)  ,</v>
+        <v>WhID varchar(10)  ,</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>@AlternateID varchar(30) ,</v>
+        <v>@WhID varchar(10) ,</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="5"/>
-        <v>AlternateID ,</v>
+        <v>WhID ,</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="6"/>
-        <v>@AlternateID ,</v>
+        <v>@WhID ,</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="7"/>
-        <v>AlternateID =@AlternateID ,</v>
+        <v>WhID =@WhID ,</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v>CuryPOExtPrice] float] NOT NULL,</v>
+        <v>ToWhID] varchar](10) NULL,</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="2"/>
-        <v>CuryPOExtPrice float NOT NULL,</v>
+        <v>ToWhID varchar(10) NULL,</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="3"/>
-        <v>CuryPOExtPrice float  NULL,</v>
+        <v>ToWhID varchar(10) NULL,</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="4"/>
-        <v>CuryPOExtPrice float  ,</v>
+        <v>ToWhID varchar(10) ,</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>@CuryPOExtPrice float ,</v>
+        <v>@ToWhID varchar(10) ,</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="5"/>
-        <v>CuryPOExtPrice ,</v>
+        <v>ToWhID ,</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="6"/>
-        <v>@CuryPOExtPrice ,</v>
+        <v>@ToWhID ,</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="7"/>
-        <v>CuryPOExtPrice =@CuryPOExtPrice ,</v>
+        <v>ToWhID =@ToWhID ,</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v>CuryPOFee] float] NOT NULL,</v>
+        <v>FreeItem] bit] NOT NULL,</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="2"/>
-        <v>CuryPOFee float NOT NULL,</v>
+        <v>FreeItem bit NOT NULL,</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="3"/>
-        <v>CuryPOFee float  NULL,</v>
+        <v>FreeItem bit  NULL,</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="4"/>
-        <v>CuryPOFee float  ,</v>
+        <v>FreeItem bit  ,</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>@CuryPOFee float ,</v>
+        <v>@FreeItem bit ,</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="5"/>
-        <v>CuryPOFee ,</v>
+        <v>FreeItem ,</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="6"/>
-        <v>@CuryPOFee ,</v>
+        <v>@FreeItem ,</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="7"/>
-        <v>CuryPOFee =@CuryPOFee ,</v>
+        <v>FreeItem =@FreeItem ,</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
-        <v>CuryPOUnitPrice] float] NOT NULL,</v>
+        <v>ProductID] varchar](30) NOT NULL,</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="2"/>
-        <v>CuryPOUnitPrice float NOT NULL,</v>
+        <v>ProductID varchar(30) NOT NULL,</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="3"/>
-        <v>CuryPOUnitPrice float  NULL,</v>
+        <v>ProductID varchar(30)  NULL,</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="4"/>
-        <v>CuryPOUnitPrice float  ,</v>
+        <v>ProductID varchar(30)  ,</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>@CuryPOUnitPrice float ,</v>
+        <v>@ProductID varchar(30) ,</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="5"/>
-        <v>CuryPOUnitPrice ,</v>
+        <v>ProductID ,</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="6"/>
-        <v>@CuryPOUnitPrice ,</v>
+        <v>@ProductID ,</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="7"/>
-        <v>CuryPOUnitPrice =@CuryPOUnitPrice ,</v>
+        <v>ProductID =@ProductID ,</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
-        <v>CuryPPV] float] NOT NULL,</v>
+        <v>TranDesc] nvarchar](100) NOT NULL,</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="2"/>
-        <v>CuryPPV float NOT NULL,</v>
+        <v>TranDesc nvarchar(100) NOT NULL,</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="3"/>
-        <v>CuryPPV float  NULL,</v>
+        <v>TranDesc nvarchar(100)  NULL,</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="4"/>
-        <v>CuryPPV float  ,</v>
+        <v>TranDesc nvarchar(100)  ,</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>@CuryPPV float ,</v>
+        <v>@TranDesc nvarchar(100) ,</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="5"/>
-        <v>CuryPPV ,</v>
+        <v>TranDesc ,</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="6"/>
-        <v>@CuryPPV ,</v>
+        <v>@TranDesc ,</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="7"/>
-        <v>CuryPPV =@CuryPPV ,</v>
+        <v>TranDesc =@TranDesc ,</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="1"/>
-        <v>CuryTaxAmt00] float] NOT NULL,</v>
+        <v>LotID] varchar](20) NULL,</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="2"/>
-        <v>CuryTaxAmt00 float NOT NULL,</v>
+        <v>LotID varchar(20) NULL,</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="3"/>
-        <v>CuryTaxAmt00 float  NULL,</v>
+        <v>LotID varchar(20) NULL,</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="4"/>
-        <v>CuryTaxAmt00 float  ,</v>
+        <v>LotID varchar(20) ,</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>@CuryTaxAmt00 float ,</v>
+        <v>@LotID varchar(20) ,</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="5"/>
-        <v>CuryTaxAmt00 ,</v>
+        <v>LotID ,</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="6"/>
-        <v>@CuryTaxAmt00 ,</v>
+        <v>@LotID ,</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="7"/>
-        <v>CuryTaxAmt00 =@CuryTaxAmt00 ,</v>
+        <v>LotID =@LotID ,</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="1"/>
-        <v>CuryTaxAmt01] float] NOT NULL,</v>
+        <v>INUnit] nvarchar](15) NOT NULL,</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="2"/>
-        <v>CuryTaxAmt01 float NOT NULL,</v>
+        <v>INUnit nvarchar(15) NOT NULL,</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="3"/>
-        <v>CuryTaxAmt01 float  NULL,</v>
+        <v>INUnit nvarchar(15)  NULL,</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="4"/>
-        <v>CuryTaxAmt01 float  ,</v>
+        <v>INUnit nvarchar(15)  ,</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>@CuryTaxAmt01 float ,</v>
+        <v>@INUnit nvarchar(15) ,</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="5"/>
-        <v>CuryTaxAmt01 ,</v>
+        <v>INUnit ,</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="6"/>
-        <v>@CuryTaxAmt01 ,</v>
+        <v>@INUnit ,</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="7"/>
-        <v>CuryTaxAmt01 =@CuryTaxAmt01 ,</v>
+        <v>INUnit =@INUnit ,</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="1"/>
-        <v>CuryTaxAmt02] float] NOT NULL,</v>
+        <v>LineQty] float] NOT NULL,</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="2"/>
-        <v>CuryTaxAmt02 float NOT NULL,</v>
+        <v>LineQty float NOT NULL,</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="3"/>
-        <v>CuryTaxAmt02 float  NULL,</v>
+        <v>LineQty float  NULL,</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="4"/>
-        <v>CuryTaxAmt02 float  ,</v>
+        <v>LineQty float  ,</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>@CuryTaxAmt02 float ,</v>
+        <v>@LineQty float ,</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="5"/>
-        <v>CuryTaxAmt02 ,</v>
+        <v>LineQty ,</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="6"/>
-        <v>@CuryTaxAmt02 ,</v>
+        <v>@LineQty ,</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="7"/>
-        <v>CuryTaxAmt02 =@CuryTaxAmt02 ,</v>
+        <v>LineQty =@LineQty ,</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="1"/>
-        <v>CuryTaxAmt03] float] NOT NULL,</v>
+        <v>UnitCost] float] NOT NULL,</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="2"/>
-        <v>CuryTaxAmt03 float NOT NULL,</v>
+        <v>UnitCost float NOT NULL,</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="3"/>
-        <v>CuryTaxAmt03 float  NULL,</v>
+        <v>UnitCost float  NULL,</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="4"/>
-        <v>CuryTaxAmt03 float  ,</v>
+        <v>UnitCost float  ,</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>@CuryTaxAmt03 float ,</v>
+        <v>@UnitCost float ,</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="5"/>
-        <v>CuryTaxAmt03 ,</v>
+        <v>UnitCost ,</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="6"/>
-        <v>@CuryTaxAmt03 ,</v>
+        <v>@UnitCost ,</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="7"/>
-        <v>CuryTaxAmt03 =@CuryTaxAmt03 ,</v>
+        <v>UnitCost =@UnitCost ,</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="1"/>
-        <v>CuryTranAmt] float] NOT NULL,</v>
+        <v>TotalCost] float] NOT NULL,</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="2"/>
-        <v>CuryTranAmt float NOT NULL,</v>
+        <v>TotalCost float NOT NULL,</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="3"/>
-        <v>CuryTranAmt float  NULL,</v>
+        <v>TotalCost float  NULL,</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="4"/>
-        <v>CuryTranAmt float  ,</v>
+        <v>TotalCost float  ,</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>@CuryTranAmt float ,</v>
+        <v>@TotalCost float ,</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="5"/>
-        <v>CuryTranAmt ,</v>
+        <v>TotalCost ,</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="6"/>
-        <v>@CuryTranAmt ,</v>
+        <v>@TotalCost ,</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="7"/>
-        <v>CuryTranAmt =@CuryTranAmt ,</v>
+        <v>TotalCost =@TotalCost ,</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="1"/>
-        <v>CuryTxblAmt00] float] NOT NULL,</v>
+        <v>InvtMult] smallint] NOT NULL,</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="2"/>
-        <v>CuryTxblAmt00 float NOT NULL,</v>
+        <v>InvtMult smallint NOT NULL,</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="3"/>
-        <v>CuryTxblAmt00 float  NULL,</v>
+        <v>InvtMult smallint  NULL,</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="4"/>
-        <v>CuryTxblAmt00 float  ,</v>
+        <v>InvtMult smallint  ,</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>@CuryTxblAmt00 float ,</v>
+        <v>@InvtMult smallint ,</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="5"/>
-        <v>CuryTxblAmt00 ,</v>
+        <v>InvtMult ,</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="6"/>
-        <v>@CuryTxblAmt00 ,</v>
+        <v>@InvtMult ,</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="7"/>
-        <v>CuryTxblAmt00 =@CuryTxblAmt00 ,</v>
+        <v>InvtMult =@InvtMult ,</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="1"/>
-        <v>CuryTxblAmt01] float] NOT NULL,</v>
+        <v>ObjID] varchar](30) NULL,</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="2"/>
-        <v>CuryTxblAmt01 float NOT NULL,</v>
+        <v>ObjID varchar(30) NULL,</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="3"/>
-        <v>CuryTxblAmt01 float  NULL,</v>
+        <v>ObjID varchar(30) NULL,</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="4"/>
-        <v>CuryTxblAmt01 float  ,</v>
+        <v>ObjID varchar(30) ,</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>@CuryTxblAmt01 float ,</v>
+        <v>@ObjID varchar(30) ,</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="5"/>
-        <v>CuryTxblAmt01 ,</v>
+        <v>ObjID ,</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="6"/>
-        <v>@CuryTxblAmt01 ,</v>
+        <v>@ObjID ,</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="7"/>
-        <v>CuryTxblAmt01 =@CuryTxblAmt01 ,</v>
+        <v>ObjID =@ObjID ,</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="1"/>
-        <v>CuryTxblAmt02] float] NOT NULL,</v>
+        <v>ShipperID] varchar](15) NULL,</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="2"/>
-        <v>CuryTxblAmt02 float NOT NULL,</v>
+        <v>ShipperID varchar(15) NULL,</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="3"/>
-        <v>CuryTxblAmt02 float  NULL,</v>
+        <v>ShipperID varchar(15) NULL,</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="4"/>
-        <v>CuryTxblAmt02 float  ,</v>
+        <v>ShipperID varchar(15) ,</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>@CuryTxblAmt02 float ,</v>
+        <v>@ShipperID varchar(15) ,</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="5"/>
-        <v>CuryTxblAmt02 ,</v>
+        <v>ShipperID ,</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="6"/>
-        <v>@CuryTxblAmt02 ,</v>
+        <v>@ShipperID ,</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="7"/>
-        <v>CuryTxblAmt02 =@CuryTxblAmt02 ,</v>
+        <v>ShipperID =@ShipperID ,</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="1"/>
-        <v>CuryTxblAmt03] float] NOT NULL,</v>
+        <v>RsID] varchar](6) NOT NULL,</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="2"/>
-        <v>CuryTxblAmt03 float NOT NULL,</v>
+        <v>RsID varchar(6) NOT NULL,</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="3"/>
-        <v>CuryTxblAmt03 float  NULL,</v>
+        <v>RsID varchar(6)  NULL,</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="4"/>
-        <v>CuryTxblAmt03 float  ,</v>
+        <v>RsID varchar(6)  ,</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>@CuryTxblAmt03 float ,</v>
+        <v>@RsID varchar(6) ,</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="5"/>
-        <v>CuryTxblAmt03 ,</v>
+        <v>RsID ,</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="6"/>
-        <v>@CuryTxblAmt03 ,</v>
+        <v>@RsID ,</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="7"/>
-        <v>CuryTxblAmt03 =@CuryTxblAmt03 ,</v>
+        <v>RsID =@RsID ,</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="1"/>
-        <v>CuryUnitPrice] float] NOT NULL,</v>
+        <v>Rlsed] smallint] NOT NULL,</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="2"/>
-        <v>CuryUnitPrice float NOT NULL,</v>
+        <v>Rlsed smallint NOT NULL,</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="3"/>
-        <v>CuryUnitPrice float  NULL,</v>
+        <v>Rlsed smallint  NULL,</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="4"/>
-        <v>CuryUnitPrice float  ,</v>
+        <v>Rlsed smallint  ,</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>@CuryUnitPrice float ,</v>
+        <v>@Rlsed smallint ,</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="5"/>
-        <v>CuryUnitPrice ,</v>
+        <v>Rlsed ,</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="6"/>
-        <v>@CuryUnitPrice ,</v>
+        <v>@Rlsed ,</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="7"/>
-        <v>CuryUnitPrice =@CuryUnitPrice ,</v>
+        <v>Rlsed =@Rlsed ,</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="1"/>
-        <v>DrCr] varchar](1) NOT NULL,</v>
+        <v>SONbr] varchar](15) NULL,</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="2"/>
-        <v>DrCr varchar(1) NOT NULL,</v>
+        <v>SONbr varchar(15) NULL,</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="3"/>
-        <v>DrCr varchar(1)  NULL,</v>
+        <v>SONbr varchar(15) NULL,</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="4"/>
-        <v>DrCr varchar(1)  ,</v>
+        <v>SONbr varchar(15) ,</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>@DrCr varchar(1) ,</v>
+        <v>@SONbr varchar(15) ,</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="5"/>
-        <v>DrCr ,</v>
+        <v>SONbr ,</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="6"/>
-        <v>@DrCr ,</v>
+        <v>@SONbr ,</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="7"/>
-        <v>DrCr =@DrCr ,</v>
+        <v>SONbr =@SONbr ,</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="1"/>
-        <v>InvcNbr] varchar](10) NOT NULL,</v>
+        <v>PONbr] varchar](15) NULL,</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="2"/>
-        <v>InvcNbr varchar(10) NOT NULL,</v>
+        <v>PONbr varchar(15) NULL,</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="3"/>
-        <v>InvcNbr varchar(10)  NULL,</v>
+        <v>PONbr varchar(15) NULL,</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="4"/>
-        <v>InvcNbr varchar(10)  ,</v>
+        <v>PONbr varchar(15) ,</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>@InvcNbr varchar(10) ,</v>
+        <v>@PONbr varchar(15) ,</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="5"/>
-        <v>InvcNbr ,</v>
+        <v>PONbr ,</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="6"/>
-        <v>@InvcNbr ,</v>
+        <v>@PONbr ,</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="7"/>
-        <v>InvcNbr =@InvcNbr ,</v>
+        <v>PONbr =@PONbr ,</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="1"/>
-        <v>InvcNote] varchar](10) NOT NULL,</v>
+        <v>Cnvfact] float] NOT NULL,</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="2"/>
-        <v>InvcNote varchar(10) NOT NULL,</v>
+        <v>Cnvfact float NOT NULL,</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="3"/>
-        <v>InvcNote varchar(10)  NULL,</v>
+        <v>Cnvfact float  NULL,</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="4"/>
-        <v>InvcNote varchar(10)  ,</v>
+        <v>Cnvfact float  ,</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>@InvcNote varchar(10) ,</v>
+        <v>@Cnvfact float ,</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="5"/>
-        <v>InvcNote ,</v>
+        <v>Cnvfact ,</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="6"/>
-        <v>@InvcNote ,</v>
+        <v>@Cnvfact ,</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="7"/>
-        <v>InvcNote =@InvcNote ,</v>
+        <v>Cnvfact =@Cnvfact ,</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="1"/>
-        <v>InvtID] varchar](30) NOT NULL,</v>
+        <v>UnitRate] float] NOT NULL,</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="2"/>
-        <v>InvtID varchar(30) NOT NULL,</v>
+        <v>UnitRate float NOT NULL,</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="3"/>
-        <v>InvtID varchar(30)  NULL,</v>
+        <v>UnitRate float  NULL,</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="4"/>
-        <v>InvtID varchar(30)  ,</v>
+        <v>UnitRate float  ,</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>@InvtID varchar(30) ,</v>
+        <v>@UnitRate float ,</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="5"/>
-        <v>InvtID ,</v>
+        <v>UnitRate ,</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="6"/>
-        <v>@InvtID ,</v>
+        <v>@UnitRate ,</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="7"/>
-        <v>InvtID =@InvtID ,</v>
+        <v>UnitRate =@UnitRate ,</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="1"/>
-        <v>InvcDate] datetime] NOT NULL,</v>
+        <v>DetailQty] float] NOT NULL,</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="2"/>
-        <v>InvcDate datetime NOT NULL,</v>
+        <v>DetailQty float NOT NULL,</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="3"/>
-        <v>InvcDate datetime  NULL,</v>
+        <v>DetailQty float  NULL,</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="4"/>
-        <v>InvcDate datetime  ,</v>
+        <v>DetailQty float  ,</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>@InvcDate datetime ,</v>
+        <v>@DetailQty float ,</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="5"/>
-        <v>InvcDate ,</v>
+        <v>DetailQty ,</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="6"/>
-        <v>@InvcDate ,</v>
+        <v>@DetailQty ,</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="7"/>
-        <v>InvcDate =@InvcDate ,</v>
+        <v>DetailQty =@DetailQty ,</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="1"/>
-        <v>JrnlType] varchar](3) NOT NULL,</v>
+        <v>Crtd_DateTime] datetime] NOT NULL,</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="2"/>
-        <v>JrnlType varchar(3) NOT NULL,</v>
+        <v>Crtd_DateTime datetime NOT NULL,</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="3"/>
-        <v>JrnlType varchar(3)  NULL,</v>
+        <v>Crtd_DateTime datetime  NULL,</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="4"/>
-        <v>JrnlType varchar(3)  ,</v>
+        <v>Crtd_DateTime datetime  ,</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>@JrnlType varchar(3) ,</v>
+        <v>@Crtd_DateTime datetime ,</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="5"/>
-        <v>JrnlType ,</v>
+        <v>Crtd_DateTime ,</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="6"/>
-        <v>@JrnlType ,</v>
+        <v>@Crtd_DateTime ,</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="7"/>
-        <v>JrnlType =@JrnlType ,</v>
+        <v>Crtd_DateTime =@Crtd_DateTime ,</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="1"/>
-        <v>LineType] varchar](1) NOT NULL,</v>
+        <v>Crtd_Prog] varchar](8) NOT NULL,</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="2"/>
-        <v>LineType varchar(1) NOT NULL,</v>
+        <v>Crtd_Prog varchar(8) NOT NULL,</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="3"/>
-        <v>LineType varchar(1)  NULL,</v>
+        <v>Crtd_Prog varchar(8)  NULL,</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="4"/>
-        <v>LineType varchar(1)  ,</v>
+        <v>Crtd_Prog varchar(8)  ,</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>@LineType varchar(1) ,</v>
+        <v>@Crtd_Prog varchar(8) ,</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="5"/>
-        <v>LineType ,</v>
+        <v>Crtd_Prog ,</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="6"/>
-        <v>@LineType ,</v>
+        <v>@Crtd_Prog ,</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="7"/>
-        <v>LineType =@LineType ,</v>
+        <v>Crtd_Prog =@Crtd_Prog ,</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="1"/>
-        <v>POExtPrice] float] NOT NULL,</v>
+        <v>Crtd_User] varchar](10) NOT NULL,</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="2"/>
-        <v>POExtPrice float NOT NULL,</v>
+        <v>Crtd_User varchar(10) NOT NULL,</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="3"/>
-        <v>POExtPrice float  NULL,</v>
+        <v>Crtd_User varchar(10)  NULL,</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="4"/>
-        <v>POExtPrice float  ,</v>
+        <v>Crtd_User varchar(10)  ,</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>@POExtPrice float ,</v>
+        <v>@Crtd_User varchar(10) ,</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="5"/>
-        <v>POExtPrice ,</v>
+        <v>Crtd_User ,</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="6"/>
-        <v>@POExtPrice ,</v>
+        <v>@Crtd_User ,</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="7"/>
-        <v>POExtPrice =@POExtPrice ,</v>
+        <v>Crtd_User =@Crtd_User ,</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="1"/>
-        <v>POFee] float] NOT NULL,</v>
+        <v>LUpd_DateTime] datetime] NOT NULL,</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="2"/>
-        <v>POFee float NOT NULL,</v>
+        <v>LUpd_DateTime datetime NOT NULL,</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="3"/>
-        <v>POFee float  NULL,</v>
+        <v>LUpd_DateTime datetime  NULL,</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="4"/>
-        <v>POFee float  ,</v>
+        <v>LUpd_DateTime datetime  ,</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>@POFee float ,</v>
+        <v>@LUpd_DateTime datetime ,</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="5"/>
-        <v>POFee ,</v>
+        <v>LUpd_DateTime ,</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="6"/>
-        <v>@POFee ,</v>
+        <v>@LUpd_DateTime ,</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="7"/>
-        <v>POFee =@POFee ,</v>
+        <v>LUpd_DateTime =@LUpd_DateTime ,</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="1"/>
-        <v>POLineRef] varchar](5) NOT NULL,</v>
+        <v>LUpd_Prog] varchar](8) NOT NULL,</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="2"/>
-        <v>POLineRef varchar(5) NOT NULL,</v>
+        <v>LUpd_Prog varchar(8) NOT NULL,</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="3"/>
-        <v>POLineRef varchar(5)  NULL,</v>
+        <v>LUpd_Prog varchar(8)  NULL,</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="4"/>
-        <v>POLineRef varchar(5)  ,</v>
+        <v>LUpd_Prog varchar(8)  ,</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>@POLineRef varchar(5) ,</v>
+        <v>@LUpd_Prog varchar(8) ,</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="5"/>
-        <v>POLineRef ,</v>
+        <v>LUpd_Prog ,</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="6"/>
-        <v>@POLineRef ,</v>
+        <v>@LUpd_Prog ,</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="7"/>
-        <v>POLineRef =@POLineRef ,</v>
+        <v>LUpd_Prog =@LUpd_Prog ,</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="1"/>
-        <v>PONbr] varchar](10) NOT NULL,</v>
+        <v>LUpd_User] varchar](10) NOT NULL,</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="2"/>
-        <v>PONbr varchar(10) NOT NULL,</v>
+        <v>LUpd_User varchar(10) NOT NULL,</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="3"/>
-        <v>PONbr varchar(10)  NULL,</v>
+        <v>LUpd_User varchar(10)  NULL,</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="4"/>
-        <v>PONbr varchar(10)  ,</v>
+        <v>LUpd_User varchar(10)  ,</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>@PONbr varchar(10) ,</v>
+        <v>@LUpd_User varchar(10) ,</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="5"/>
-        <v>PONbr ,</v>
+        <v>LUpd_User ,</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="6"/>
-        <v>@PONbr ,</v>
+        <v>@LUpd_User ,</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="7"/>
-        <v>PONbr =@PONbr ,</v>
+        <v>LUpd_User =@LUpd_User ,</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>39</v>
-      </c>
       <c r="C35" t="str">
         <f t="shared" si="1"/>
-        <v>POQty] float] NOT NULL,</v>
+        <v/>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="2"/>
-        <v>POQty float NOT NULL,</v>
+        <v/>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="3"/>
-        <v>POQty float  NULL,</v>
+        <v/>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="4"/>
-        <v>POQty float  ,</v>
+        <v/>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>@POQty float ,</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="5"/>
-        <v>POQty ,</v>
-      </c>
-      <c r="I35" t="str">
-        <f t="shared" si="6"/>
-        <v>@POQty ,</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="7"/>
-        <v>POQty =@POQty ,</v>
+        <v>@</v>
+      </c>
+      <c r="H35" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I35" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J35" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="1"/>
@@ -1878,7 +1903,7 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="1"/>
@@ -1915,7 +1940,7 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="1"/>
@@ -1952,7 +1977,7 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="1"/>
@@ -1989,7 +2014,7 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="1"/>
@@ -2026,7 +2051,7 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="1"/>
@@ -2063,7 +2088,7 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="1"/>
@@ -2100,7 +2125,7 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="1"/>
@@ -2137,7 +2162,7 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="1"/>
@@ -2174,7 +2199,7 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="1"/>
@@ -2211,7 +2236,7 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="1"/>
